--- a/matlab/ipb1-13.xlsx
+++ b/matlab/ipb1-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>reactor</t>
   </si>
@@ -61,9 +61,6 @@
     <t>version</t>
   </si>
   <si>
-    <t>dc</t>
-  </si>
-  <si>
     <t>ipb1-13</t>
   </si>
   <si>
@@ -77,6 +74,18 @@
   </si>
   <si>
     <t>h2</t>
+  </si>
+  <si>
+    <t>q-pulse</t>
+  </si>
+  <si>
+    <t>low vol</t>
+  </si>
+  <si>
+    <t>030417</t>
+  </si>
+  <si>
+    <t>PermalloyCore_H2-lowvolt_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -924,7 +933,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -941,7 +950,7 @@
     <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -995,31 +1004,31 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1034,11 +1043,58 @@
         <v>187</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>187</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>

--- a/matlab/ipb1-13.xlsx
+++ b/matlab/ipb1-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>reactor</t>
   </si>
@@ -52,9 +52,6 @@
     <t>gas</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>termRes</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t>PermalloyCore_H2-lowvolt_day-01.csv</t>
+  </si>
+  <si>
+    <t>googleModel</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -638,6 +641,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -933,29 +939,29 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,30 +996,30 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1028,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1043,24 +1049,24 @@
         <v>187</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
@@ -1075,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -1090,37 +1096,37 @@
         <v>187</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
